--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H2">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.199522666666667</v>
+        <v>0.9844133333333334</v>
       </c>
       <c r="N2">
-        <v>3.598568</v>
+        <v>2.95324</v>
       </c>
       <c r="O2">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="P2">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="Q2">
-        <v>6.579397420461332</v>
+        <v>3.992066780333334</v>
       </c>
       <c r="R2">
-        <v>59.21457678415199</v>
+        <v>35.92860102300001</v>
       </c>
       <c r="S2">
-        <v>0.06359640417167084</v>
+        <v>0.03814884719348879</v>
       </c>
       <c r="T2">
-        <v>0.06359640417167085</v>
+        <v>0.03814884719348879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H3">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I3">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J3">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.250404</v>
       </c>
       <c r="N3">
-        <v>6.751211999999999</v>
+        <v>6.751212</v>
       </c>
       <c r="O3">
-        <v>0.4392495503217396</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="P3">
-        <v>0.4392495503217397</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="Q3">
-        <v>12.343495195252</v>
+        <v>9.126007081100003</v>
       </c>
       <c r="R3">
-        <v>111.091456757268</v>
+        <v>82.13406372990001</v>
       </c>
       <c r="S3">
-        <v>0.1193121283245542</v>
+        <v>0.08720962568529746</v>
       </c>
       <c r="T3">
-        <v>0.1193121283245542</v>
+        <v>0.08720962568529744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H4">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I4">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J4">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6100566666666666</v>
+        <v>0.7391030000000001</v>
       </c>
       <c r="N4">
-        <v>1.83017</v>
+        <v>2.217309</v>
       </c>
       <c r="O4">
-        <v>0.1190751156255111</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="P4">
-        <v>0.1190751156255112</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="Q4">
-        <v>3.346168747403333</v>
+        <v>2.997265918325001</v>
       </c>
       <c r="R4">
-        <v>30.11551872663</v>
+        <v>26.97539326492501</v>
       </c>
       <c r="S4">
-        <v>0.0323440410248929</v>
+        <v>0.02864236642526427</v>
       </c>
       <c r="T4">
-        <v>0.03234404102489291</v>
+        <v>0.02864236642526427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H5">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I5">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J5">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.063309333333333</v>
+        <v>1.050812666666667</v>
       </c>
       <c r="N5">
-        <v>3.189928</v>
+        <v>3.152438</v>
       </c>
       <c r="O5">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="P5">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="Q5">
-        <v>5.832265516354667</v>
+        <v>4.261334336816668</v>
       </c>
       <c r="R5">
-        <v>52.490389647192</v>
+        <v>38.35200903135001</v>
       </c>
       <c r="S5">
-        <v>0.05637463301138944</v>
+        <v>0.04072201228107009</v>
       </c>
       <c r="T5">
-        <v>0.05637463301138944</v>
+        <v>0.04072201228107009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H6">
         <v>19.628437</v>
       </c>
       <c r="I6">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J6">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.199522666666667</v>
+        <v>0.9844133333333334</v>
       </c>
       <c r="N6">
-        <v>3.598568</v>
+        <v>2.95324</v>
       </c>
       <c r="O6">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="P6">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="Q6">
-        <v>7.848251697579555</v>
+        <v>6.440831698431111</v>
       </c>
       <c r="R6">
-        <v>70.63426527821601</v>
+        <v>57.96748528588</v>
       </c>
       <c r="S6">
-        <v>0.07586113972201332</v>
+        <v>0.06154964778467728</v>
       </c>
       <c r="T6">
-        <v>0.07586113972201335</v>
+        <v>0.06154964778467728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H7">
         <v>19.628437</v>
       </c>
       <c r="I7">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J7">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>2.250404</v>
       </c>
       <c r="N7">
-        <v>6.751211999999999</v>
+        <v>6.751212</v>
       </c>
       <c r="O7">
-        <v>0.4392495503217396</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="P7">
-        <v>0.4392495503217397</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="Q7">
         <v>14.72397104618267</v>
@@ -883,10 +883,10 @@
         <v>132.515739415644</v>
       </c>
       <c r="S7">
-        <v>0.1423217893409081</v>
+        <v>0.1407046906853783</v>
       </c>
       <c r="T7">
-        <v>0.1423217893409081</v>
+        <v>0.1407046906853783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H8">
         <v>19.628437</v>
       </c>
       <c r="I8">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J8">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6100566666666666</v>
+        <v>0.7391030000000001</v>
       </c>
       <c r="N8">
-        <v>1.83017</v>
+        <v>2.217309</v>
       </c>
       <c r="O8">
-        <v>0.1190751156255111</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="P8">
-        <v>0.1190751156255112</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="Q8">
-        <v>3.991486282698889</v>
+        <v>4.835812224003667</v>
       </c>
       <c r="R8">
-        <v>35.92337654429</v>
+        <v>43.522310016033</v>
       </c>
       <c r="S8">
-        <v>0.03858167529001456</v>
+        <v>0.0462118175223805</v>
       </c>
       <c r="T8">
-        <v>0.03858167529001457</v>
+        <v>0.0462118175223805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H9">
         <v>19.628437</v>
       </c>
       <c r="I9">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J9">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.063309333333333</v>
+        <v>1.050812666666667</v>
       </c>
       <c r="N9">
-        <v>3.189928</v>
+        <v>3.152438</v>
       </c>
       <c r="O9">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="P9">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="Q9">
-        <v>6.957033420281779</v>
+        <v>6.875270075489555</v>
       </c>
       <c r="R9">
-        <v>62.61330078253601</v>
+        <v>61.877430679406</v>
       </c>
       <c r="S9">
-        <v>0.06724663080179744</v>
+        <v>0.065701212418575</v>
       </c>
       <c r="T9">
-        <v>0.06724663080179744</v>
+        <v>0.06570121241857502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H10">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I10">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J10">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.199522666666667</v>
+        <v>0.9844133333333334</v>
       </c>
       <c r="N10">
-        <v>3.598568</v>
+        <v>2.95324</v>
       </c>
       <c r="O10">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="P10">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="Q10">
-        <v>6.244332754776888</v>
+        <v>6.693813784</v>
       </c>
       <c r="R10">
-        <v>56.198994792992</v>
+        <v>60.244324056</v>
       </c>
       <c r="S10">
-        <v>0.06035767172540686</v>
+        <v>0.06396718623183016</v>
       </c>
       <c r="T10">
-        <v>0.06035767172540687</v>
+        <v>0.06396718623183016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H11">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I11">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J11">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>2.250404</v>
       </c>
       <c r="N11">
-        <v>6.751211999999999</v>
+        <v>6.751212</v>
       </c>
       <c r="O11">
-        <v>0.4392495503217396</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="P11">
-        <v>0.4392495503217397</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="Q11">
-        <v>11.71488609525866</v>
+        <v>15.3022971192</v>
       </c>
       <c r="R11">
-        <v>105.433974857328</v>
+        <v>137.7206740728</v>
       </c>
       <c r="S11">
-        <v>0.113235997664801</v>
+        <v>0.1462312698238432</v>
       </c>
       <c r="T11">
-        <v>0.113235997664801</v>
+        <v>0.1462312698238432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H12">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I12">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J12">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6100566666666666</v>
+        <v>0.7391030000000001</v>
       </c>
       <c r="N12">
-        <v>1.83017</v>
+        <v>2.217309</v>
       </c>
       <c r="O12">
-        <v>0.1190751156255111</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="P12">
-        <v>0.1190751156255112</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="Q12">
-        <v>3.175760601942222</v>
+        <v>5.025752579400001</v>
       </c>
       <c r="R12">
-        <v>28.58184541748</v>
+        <v>45.2317732146</v>
       </c>
       <c r="S12">
-        <v>0.03069687721940724</v>
+        <v>0.0480269188201816</v>
       </c>
       <c r="T12">
-        <v>0.03069687721940724</v>
+        <v>0.0480269188201816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H13">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I13">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J13">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.063309333333333</v>
+        <v>1.050812666666667</v>
       </c>
       <c r="N13">
-        <v>3.189928</v>
+        <v>3.152438</v>
       </c>
       <c r="O13">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="P13">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="Q13">
-        <v>5.535249548092446</v>
+        <v>7.1453159708</v>
       </c>
       <c r="R13">
-        <v>49.817245932832</v>
+        <v>64.3078437372</v>
       </c>
       <c r="S13">
-        <v>0.05350367897777219</v>
+        <v>0.06828181544009229</v>
       </c>
       <c r="T13">
-        <v>0.05350367897777217</v>
+        <v>0.06828181544009231</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H14">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I14">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J14">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.199522666666667</v>
+        <v>0.9844133333333334</v>
       </c>
       <c r="N14">
-        <v>3.598568</v>
+        <v>2.95324</v>
       </c>
       <c r="O14">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="P14">
-        <v>0.2341312013016629</v>
+        <v>0.1959135606475674</v>
       </c>
       <c r="Q14">
-        <v>3.550177256422222</v>
+        <v>3.374563000186667</v>
       </c>
       <c r="R14">
-        <v>31.9515953078</v>
+        <v>30.37106700168</v>
       </c>
       <c r="S14">
-        <v>0.03431598568257183</v>
+        <v>0.03224787943757116</v>
       </c>
       <c r="T14">
-        <v>0.03431598568257184</v>
+        <v>0.03224787943757116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H15">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I15">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J15">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>2.250404</v>
       </c>
       <c r="N15">
-        <v>6.751211999999999</v>
+        <v>6.751212</v>
       </c>
       <c r="O15">
-        <v>0.4392495503217396</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="P15">
-        <v>0.4392495503217397</v>
+        <v>0.4478653890664439</v>
       </c>
       <c r="Q15">
-        <v>6.660426951966666</v>
+        <v>7.714371409576001</v>
       </c>
       <c r="R15">
-        <v>59.9438425677</v>
+        <v>69.429342686184</v>
       </c>
       <c r="S15">
-        <v>0.06437963499147638</v>
+        <v>0.07371980287192496</v>
       </c>
       <c r="T15">
-        <v>0.06437963499147638</v>
+        <v>0.07371980287192496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H16">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I16">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J16">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6100566666666666</v>
+        <v>0.7391030000000001</v>
       </c>
       <c r="N16">
-        <v>1.83017</v>
+        <v>2.217309</v>
       </c>
       <c r="O16">
-        <v>0.1190751156255111</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="P16">
-        <v>0.1190751156255112</v>
+        <v>0.1470929898165733</v>
       </c>
       <c r="Q16">
-        <v>1.805559297305555</v>
+        <v>2.533640649382</v>
       </c>
       <c r="R16">
-        <v>16.25003367575</v>
+        <v>22.802765844438</v>
       </c>
       <c r="S16">
-        <v>0.01745252209119641</v>
+        <v>0.02421188704874696</v>
       </c>
       <c r="T16">
-        <v>0.01745252209119642</v>
+        <v>0.02421188704874696</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H17">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I17">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J17">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.063309333333333</v>
+        <v>1.050812666666667</v>
       </c>
       <c r="N17">
-        <v>3.189928</v>
+        <v>3.152438</v>
       </c>
       <c r="O17">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="P17">
-        <v>0.2075441327510863</v>
+        <v>0.2091280604694153</v>
       </c>
       <c r="Q17">
-        <v>3.147032329311112</v>
+        <v>3.602179516457333</v>
       </c>
       <c r="R17">
-        <v>28.3232909638</v>
+        <v>32.419615648116</v>
       </c>
       <c r="S17">
-        <v>0.0304191899601272</v>
+        <v>0.03442302032967789</v>
       </c>
       <c r="T17">
-        <v>0.0304191899601272</v>
+        <v>0.0344230203296779</v>
       </c>
     </row>
   </sheetData>
